--- a/outputs-HGR-r202/test-g__Propionibacterium_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Propionibacterium_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Row</t>
   </si>
@@ -217,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -227,14 +227,54 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,28 +287,28 @@
   <dimension ref="A1:C59"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="true"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
     <col min="2" max="2" width="35.42578125" customWidth="true"/>
     <col min="3" max="3" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>13.031067311341907</v>
       </c>
       <c r="C2">
         <v>1</v>
